--- a/data/trans_dic/P22_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P22_R2-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0112184929197552</v>
+        <v>0.01197918074320008</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02141320293988296</v>
+        <v>0.02213647554900024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004401082702515255</v>
+        <v>0.004304492888328564</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01465473982302728</v>
+        <v>0.01369284000807985</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01704648293288234</v>
+        <v>0.0171405397308063</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01276648373998182</v>
+        <v>0.01296855894148285</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01114377675349576</v>
+        <v>0.01124755840158237</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02811312642370697</v>
+        <v>0.02773969490846318</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01794677546538666</v>
+        <v>0.01761033087221376</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01907775862611191</v>
+        <v>0.01917978208795378</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.009250246844078845</v>
+        <v>0.009246836086912206</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02423438996444021</v>
+        <v>0.02587123225926451</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03854133583505748</v>
+        <v>0.04001586954369283</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0464305790543386</v>
+        <v>0.04727739769247152</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01640640006890709</v>
+        <v>0.0169550635503675</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0473028289915357</v>
+        <v>0.04755474983740612</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03955004456051058</v>
+        <v>0.03905688265386824</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02994747349284369</v>
+        <v>0.02987136123283981</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02531295615876009</v>
+        <v>0.026475527722485</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05740607916628541</v>
+        <v>0.05680386908083838</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03394394486896046</v>
+        <v>0.03439943177403215</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03340772847816174</v>
+        <v>0.03391719263956865</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01870004840178583</v>
+        <v>0.01914131174484106</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0462363194899781</v>
+        <v>0.04692227066292594</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03767055948553618</v>
+        <v>0.03745499078969769</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0250358911263091</v>
+        <v>0.02521088658766794</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01776377726642843</v>
+        <v>0.01783239049443879</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0273100440624655</v>
+        <v>0.02783660269964584</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02154467260062883</v>
+        <v>0.02179261926663779</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02719974742094635</v>
+        <v>0.02629248718878378</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0283566236072319</v>
+        <v>0.02780025423640772</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05059803486743002</v>
+        <v>0.05010322635283962</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03296818616190619</v>
+        <v>0.03263480896228137</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02864660705310484</v>
+        <v>0.02907797891688954</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02577588457039087</v>
+        <v>0.02544063822445796</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04332174465884533</v>
+        <v>0.04330230963472836</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06474742262380588</v>
+        <v>0.06370138409724789</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04880683348391095</v>
+        <v>0.0493274780517322</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04064397990672304</v>
+        <v>0.03927004302887744</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05255300005540356</v>
+        <v>0.05219858518744127</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04319358071265256</v>
+        <v>0.04338782820327645</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05124672590873963</v>
+        <v>0.05007352268272161</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05304728615959854</v>
+        <v>0.05506714771595077</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07725035751787149</v>
+        <v>0.07763709898561624</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05002715223383948</v>
+        <v>0.050600926261524</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04626021648845046</v>
+        <v>0.04599476308652874</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04318400775476888</v>
+        <v>0.04223316369921425</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06118596252306597</v>
+        <v>0.06154804848747483</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05915789126649888</v>
+        <v>0.05794543633684616</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04227997137757947</v>
+        <v>0.04125131279070979</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03781346812859753</v>
+        <v>0.03987930599879454</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06709155228424174</v>
+        <v>0.06654265335629991</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04175985238827142</v>
+        <v>0.04311179053224157</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0438794607743521</v>
+        <v>0.04215401193782584</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03465694004791528</v>
+        <v>0.03503738635482812</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08915555156709382</v>
+        <v>0.08960672305913997</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05489065382044563</v>
+        <v>0.05539761092656258</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04566733945600359</v>
+        <v>0.04611366289685308</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04062634657368275</v>
+        <v>0.04100786083394433</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0821986806377985</v>
+        <v>0.08337543827832296</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09126014326203626</v>
+        <v>0.09088830541681783</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07480476226705078</v>
+        <v>0.0743244202804398</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0710072505463016</v>
+        <v>0.07191135704031443</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1059565105062193</v>
+        <v>0.1036312862247117</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07300757423627455</v>
+        <v>0.07294930349703349</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07640810142104086</v>
+        <v>0.07424158585223724</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06608582904995654</v>
+        <v>0.06456714744173986</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1208618528227753</v>
+        <v>0.1222137042200766</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07666105459187678</v>
+        <v>0.0771050499937576</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06884642638347135</v>
+        <v>0.06869570151138997</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06290193516543542</v>
+        <v>0.06315738743735123</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1076733209642456</v>
+        <v>0.1092282946236589</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.09619023729512341</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.204010923162642</v>
+        <v>0.2040109231626419</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1164993094956278</v>
+        <v>0.1185765377977864</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05474732102151302</v>
+        <v>0.05813880662579085</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06179205544674198</v>
+        <v>0.06264002517408472</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1809565620874395</v>
+        <v>0.1821629329696459</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1309362195037156</v>
+        <v>0.1323395700947739</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0522488168167642</v>
+        <v>0.05408141851183412</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0818145815800389</v>
+        <v>0.08281734629010545</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1768030523754865</v>
+        <v>0.1773791179095008</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.134493409312441</v>
+        <v>0.1329844063400231</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06185410004982532</v>
+        <v>0.06126941920351416</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07952421422918357</v>
+        <v>0.07770113826462262</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1861018203197617</v>
+        <v>0.1870256781722442</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1889739978640009</v>
+        <v>0.1881207948218397</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.11023255090641</v>
+        <v>0.1111879804774385</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1159862712509266</v>
+        <v>0.1119350278057366</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2380464314121343</v>
+        <v>0.2389423578266322</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2176528147062471</v>
+        <v>0.2148326353964681</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1059576023112838</v>
+        <v>0.1076601547182911</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1393954884648436</v>
+        <v>0.1439145646684372</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2267939750219348</v>
+        <v>0.2248740968382467</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1865685545096296</v>
+        <v>0.1859243262268095</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09932540545887629</v>
+        <v>0.0977335706775905</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.118297425287534</v>
+        <v>0.1178646129439113</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2243075231128947</v>
+        <v>0.2238482602656466</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05802790137802748</v>
+        <v>0.05790922159531856</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03900060511112921</v>
+        <v>0.03918442603630085</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02999347578254417</v>
+        <v>0.02991615435722158</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08813984822775027</v>
+        <v>0.08717686232420173</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04407689883937564</v>
+        <v>0.04447017701398406</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03460182162515123</v>
+        <v>0.03529415883654792</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03646065656114689</v>
+        <v>0.03646976285400755</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0964320744234141</v>
+        <v>0.09677960086864447</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05395876465722449</v>
+        <v>0.05320660696698713</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03906034969117105</v>
+        <v>0.03895585883842313</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03503825885164082</v>
+        <v>0.03499897374941641</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09472136814751575</v>
+        <v>0.09465977544077744</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07566335168816597</v>
+        <v>0.0755808104883525</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05476057727547617</v>
+        <v>0.05387668277206725</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04385877056667606</v>
+        <v>0.04408789307908381</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1100588624195697</v>
+        <v>0.1106713979057602</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06001397978815216</v>
+        <v>0.05986997300121064</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04911704380955063</v>
+        <v>0.04950776096022846</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05005706395441396</v>
+        <v>0.0504938128800747</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1147692449262165</v>
+        <v>0.1140605833700854</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06496978181340368</v>
+        <v>0.06494764297922015</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04933669321755191</v>
+        <v>0.04896363821113643</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04468177924070502</v>
+        <v>0.04477278953179603</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1083482744408053</v>
+        <v>0.1083148252853026</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6544</v>
+        <v>6988</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>22354</v>
+        <v>23109</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4960</v>
+        <v>4851</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7309</v>
+        <v>6829</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>15723</v>
+        <v>15809</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14298</v>
+        <v>14524</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>13986</v>
+        <v>14116</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>17531</v>
+        <v>17298</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>27022</v>
+        <v>26515</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>41282</v>
+        <v>41502</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>22035</v>
+        <v>22027</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>27199</v>
+        <v>29036</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22482</v>
+        <v>23342</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>48471</v>
+        <v>49355</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18491</v>
+        <v>19109</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23592</v>
+        <v>23717</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>36478</v>
+        <v>36023</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>33539</v>
+        <v>33454</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>31768</v>
+        <v>33228</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>35797</v>
+        <v>35422</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>51108</v>
+        <v>51794</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>72290</v>
+        <v>73392</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>44545</v>
+        <v>45596</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>51892</v>
+        <v>52662</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>40562</v>
+        <v>40330</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>24437</v>
+        <v>24608</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16073</v>
+        <v>16136</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>26221</v>
+        <v>26727</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>22759</v>
+        <v>23021</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>29764</v>
+        <v>28771</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>28504</v>
+        <v>27945</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>56460</v>
+        <v>55908</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>70325</v>
+        <v>69614</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>59309</v>
+        <v>60202</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>49233</v>
+        <v>48593</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>89935</v>
+        <v>89895</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>69717</v>
+        <v>68591</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>47640</v>
+        <v>48148</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>36777</v>
+        <v>35533</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>50458</v>
+        <v>50118</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>45628</v>
+        <v>45833</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>56077</v>
+        <v>54794</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>53323</v>
+        <v>55354</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>86200</v>
+        <v>86631</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>106714</v>
+        <v>107938</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>95775</v>
+        <v>95225</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>82484</v>
+        <v>80667</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>127021</v>
+        <v>127773</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>66177</v>
+        <v>64820</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>37423</v>
+        <v>36512</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>31149</v>
+        <v>32851</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>70210</v>
+        <v>69635</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>41471</v>
+        <v>42814</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>38429</v>
+        <v>36918</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>26723</v>
+        <v>27016</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>93403</v>
+        <v>93876</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>115915</v>
+        <v>116985</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>80416</v>
+        <v>81202</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>64792</v>
+        <v>65400</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>172134</v>
+        <v>174598</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>102088</v>
+        <v>101672</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>66211</v>
+        <v>65786</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>58493</v>
+        <v>59238</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>110881</v>
+        <v>108448</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>72503</v>
+        <v>72445</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>66918</v>
+        <v>65020</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>50956</v>
+        <v>49785</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>126620</v>
+        <v>128036</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>161888</v>
+        <v>162825</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>121232</v>
+        <v>120967</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>100317</v>
+        <v>100725</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>225481</v>
+        <v>228737</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>51923</v>
+        <v>52849</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>27539</v>
+        <v>29245</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>31310</v>
+        <v>31740</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>176601</v>
+        <v>177778</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>44670</v>
+        <v>45149</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>23655</v>
+        <v>24485</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>40064</v>
+        <v>40555</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>160763</v>
+        <v>161287</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>105827</v>
+        <v>104639</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>59118</v>
+        <v>58559</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>79238</v>
+        <v>77421</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>350841</v>
+        <v>352582</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>84225</v>
+        <v>83845</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>55450</v>
+        <v>55930</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>58770</v>
+        <v>56718</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>232316</v>
+        <v>233191</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>74254</v>
+        <v>73292</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>47971</v>
+        <v>48742</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>68262</v>
+        <v>70475</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>206219</v>
+        <v>204473</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>146802</v>
+        <v>146295</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>94931</v>
+        <v>93410</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>117871</v>
+        <v>117440</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>422866</v>
+        <v>422001</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>187106</v>
+        <v>186724</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>132920</v>
+        <v>133547</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>100849</v>
+        <v>100589</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>306840</v>
+        <v>303487</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>146024</v>
+        <v>147327</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>122585</v>
+        <v>125037</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>128378</v>
+        <v>128410</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>356447</v>
+        <v>357731</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>352748</v>
+        <v>347831</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>271504</v>
+        <v>270778</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>241181</v>
+        <v>240910</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>679875</v>
+        <v>679433</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>243971</v>
+        <v>243704</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>186633</v>
+        <v>183621</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>147469</v>
+        <v>148240</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>383146</v>
+        <v>385279</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>198823</v>
+        <v>198346</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>174008</v>
+        <v>175392</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>176250</v>
+        <v>177788</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>424227</v>
+        <v>421608</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>424731</v>
+        <v>424586</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>342934</v>
+        <v>340341</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>307561</v>
+        <v>308187</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>777684</v>
+        <v>777444</v>
       </c>
     </row>
     <row r="24">
